--- a/odds.xlsx
+++ b/odds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="260" windowWidth="14280" windowHeight="15960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14420" yWindow="260" windowWidth="14300" windowHeight="13800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSV" sheetId="6" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>South Carolina</t>
   </si>
   <si>
-    <t>Dchance</t>
-  </si>
-  <si>
     <t>D Votes</t>
   </si>
   <si>
@@ -212,13 +209,16 @@
     <t>Remaining</t>
   </si>
   <si>
-    <t>Dshare</t>
-  </si>
-  <si>
     <t>Needed</t>
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
@@ -270,8 +270,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,7 +344,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -374,6 +376,7 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -405,6 +408,7 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -412,10 +416,16 @@
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -424,13 +434,7 @@
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -448,8 +452,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="State"/>
-    <tableColumn id="2" name="Votes" dataDxfId="5"/>
-    <tableColumn id="13" name="Probability" dataDxfId="1">
+    <tableColumn id="2" name="Votes" dataDxfId="8"/>
+    <tableColumn id="13" name="Probability" dataDxfId="7">
       <calculatedColumnFormula>IF(VLOOKUP(Table134[[#This Row],[State]],Table13[],5,FALSE)=0,VLOOKUP(Table134[[#This Row],[State]],Table135[],2,FALSE),VLOOKUP(Table134[[#This Row],[State]],Table13[],8,FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -460,10 +464,13 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:C57" totalsRowShown="0">
   <autoFilter ref="A1:C57"/>
+  <sortState ref="A2:C57">
+    <sortCondition descending="1" ref="B1:B57"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="State"/>
-    <tableColumn id="3" name="Dchance" dataDxfId="4"/>
-    <tableColumn id="12" name="Dshare" dataDxfId="3"/>
+    <tableColumn id="3" name="Chance" dataDxfId="6"/>
+    <tableColumn id="12" name="Share" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,14 +481,14 @@
   <autoFilter ref="A1:H57"/>
   <tableColumns count="8">
     <tableColumn id="1" name="State"/>
-    <tableColumn id="2" name="Votes" dataDxfId="8"/>
+    <tableColumn id="2" name="Votes" dataDxfId="4"/>
     <tableColumn id="6" name="D Votes"/>
     <tableColumn id="7" name="R Votes"/>
-    <tableColumn id="8" name="Reporting" dataDxfId="2"/>
-    <tableColumn id="9" name="Remaining" dataDxfId="7">
+    <tableColumn id="8" name="Reporting" dataDxfId="3"/>
+    <tableColumn id="9" name="Remaining" dataDxfId="2">
       <calculatedColumnFormula>(Table13[[#This Row],[D Votes]]+Table13[[#This Row],[R Votes]])/Table13[[#This Row],[Reporting]]-Table13[[#This Row],[D Votes]]-Table13[[#This Row],[R Votes]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Needed" dataDxfId="6">
+    <tableColumn id="10" name="Needed" dataDxfId="1">
       <calculatedColumnFormula>(Table13[[#This Row],[D Votes]]+Table13[[#This Row],[R Votes]])/Table13[[#This Row],[Reporting]]/2-Table13[[#This Row],[D Votes]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="Probability" dataDxfId="0">
@@ -817,7 +824,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -835,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1303,7 +1310,7 @@
       </c>
       <c r="C40" s="3">
         <f>IF(VLOOKUP(Table134[[#This Row],[State]],Table13[],5,FALSE)=0,VLOOKUP(Table134[[#This Row],[State]],Table135[],2,FALSE),VLOOKUP(Table134[[#This Row],[State]],Table13[],8,FALSE))</f>
-        <v>0.99</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1315,7 +1322,7 @@
       </c>
       <c r="C41" s="3">
         <f>IF(VLOOKUP(Table134[[#This Row],[State]],Table13[],5,FALSE)=0,VLOOKUP(Table134[[#This Row],[State]],Table135[],2,FALSE),VLOOKUP(Table134[[#This Row],[State]],Table13[],8,FALSE))</f>
-        <v>0.95799999999999996</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1363,7 +1370,7 @@
       </c>
       <c r="C45" s="3">
         <f>IF(VLOOKUP(Table134[[#This Row],[State]],Table13[],5,FALSE)=0,VLOOKUP(Table134[[#This Row],[State]],Table135[],2,FALSE),VLOOKUP(Table134[[#This Row],[State]],Table13[],8,FALSE))</f>
-        <v>0.98299999999999998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1471,7 +1478,7 @@
       </c>
       <c r="C54" s="3">
         <f>IF(VLOOKUP(Table134[[#This Row],[State]],Table13[],5,FALSE)=0,VLOOKUP(Table134[[#This Row],[State]],Table135[],2,FALSE),VLOOKUP(Table134[[#This Row],[State]],Table13[],8,FALSE))</f>
-        <v>0.94499999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1528,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1543,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1556,6 +1563,9 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
+      <c r="C2" s="3">
+        <v>0.59699999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -1564,6 +1574,9 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
+      <c r="C3" s="3">
+        <v>0.84099999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -1572,6 +1585,9 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
+      <c r="C4" s="3">
+        <v>0.61199999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -1580,253 +1596,271 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
+      <c r="C5" s="3">
+        <v>0.58699999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>0.998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3">
-        <v>0.998</v>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>2E-3</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>0.98</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>8.9999999999999993E-3</v>
+        <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
-        <v>8.9999999999999993E-3</v>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3">
-        <v>0.98599999999999999</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
-        <v>1.4E-2</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B20" s="3">
-        <v>0.98299999999999998</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3">
-        <v>0.97699999999999998</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>0.97</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B24" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3">
-        <v>0.95799999999999996</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3">
-        <v>0.95099999999999996</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>0.94499999999999995</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3">
-        <v>0.94</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
-        <v>7.3999999999999996E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1839,162 +1873,162 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3">
-        <v>9.1999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3">
-        <v>0.90600000000000003</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3">
-        <v>0.90100000000000002</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3">
-        <v>0.86199999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3">
-        <v>0.85299999999999998</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3">
-        <v>0.85199999999999998</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3">
-        <v>0.83199999999999996</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
-        <v>0.83199999999999996</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>0.80800000000000005</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B47" s="3">
-        <v>0.20499999999999999</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3">
-        <v>0.78600000000000003</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3">
-        <v>0.27</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B50" s="3">
-        <v>0.378</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>0.60499999999999998</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>0.59399999999999997</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B53" s="3">
-        <v>0.41</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3">
-        <v>0.42699999999999999</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B55" s="3">
-        <v>0.54900000000000004</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>0.45400000000000001</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3">
-        <v>0.51600000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2038,22 +2072,22 @@
         <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
